--- a/data/trans_bre/P6905-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Provincia-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">

--- a/data/trans_bre/P6905-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Provincia-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,7 +620,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,62</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -630,32 +630,32 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,01</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,37</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
+          <t>50,91%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,36%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,64%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-5,51; 44,2</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 38,43</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>-23,33; 35,64</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-10,29; 149,61</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,63; 167,61</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,26; 159,7</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,67</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,44</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>37,51</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,29%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>198,89%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,62; 22,19</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,27; 9,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,93; 31,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,78; 54,72</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,69; 167,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,56; 43,35</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,12; 124,14</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>37,6; 590,42</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,23</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,42</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,01%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,0%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,58%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>381,74%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-28,64; 15,09</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-31,6; 22,6</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>-19,21; 26,58</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>4,18; 26,74</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-83,17; 129,75</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>-81,11; 144,11</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>18,51; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,13</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,11</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,62</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,98</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,0%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,79%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,7%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,3; 29,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,1; 44,09</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,76; 38,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,18; 20,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-47,9; 174,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,83; 180,78</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,53; 145,95</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,07; 89,26</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,84</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>48,16</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>26,01</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>139,38%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>258,91%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,22%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,93; 74,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,04; 78,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,64; 64,8</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,49; 21,23</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,77; 663,55</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,65; 1419,15</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,73; 306,41</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 711,59</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>18,22</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,26</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>32,97</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,48</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,88%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>248,51%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,6%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,83; 44,77</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,74; 27,85</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,74; 73,77</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,39; 23,96</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,84; 116,39</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,03; 187,78</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 1677,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,81; 258,68</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,91</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,51</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,8</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,17</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,57%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>123,94%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>60,96%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,33; 24,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,44; 36,13</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,04; 37,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,13; 29,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,91; 96,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,98; 197,86</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,78; 371,12</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,35; 172,4</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>16,98</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>22,51</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,54</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>64,58%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>169,62%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,52%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,17%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,38; 34,76</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,2; 46,23</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,4; 15,16</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,4; 35,47</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,8; 171,81</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,29; 764,48</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-79,76; 98,03</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,99; 266,53</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,92</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,25</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,35</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,35%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>57,72%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>55,18%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,9; 19,26</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,83; 24,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,42; 22,8</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,11; 20,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,99; 71,01</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,47; 105,1</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,84; 95,77</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,76; 109,27</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6905-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Provincia-trans_bre.xlsx
@@ -625,7 +625,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18,72</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>7,37</t>
+          <t>5,75</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -645,7 +645,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,21%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>18,64%</t>
+          <t>13,7%</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,67; 42,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-23,33; 35,64</t>
+          <t>-25,56; 34,64</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -693,7 +693,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; 117,78</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-46,26; 159,7</t>
+          <t>-48,78; 141,71</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>37,51</t>
+          <t>36,6</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>198,89%</t>
+          <t>187,82%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,78; 54,72</t>
+          <t>14,8; 54,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>37,6; 590,42</t>
+          <t>30,97; 579,9</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>15,42</t>
+          <t>15,51</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>381,74%</t>
+          <t>386,66%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,18; 26,74</t>
+          <t>4,32; 26,8</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,51; —</t>
+          <t>19,98; —</t>
         </is>
       </c>
     </row>
@@ -925,7 +925,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,11</t>
+          <t>31,61</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-2,98</t>
+          <t>-14,93</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -945,7 +945,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>81,0%</t>
+          <t>180,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-7,7%</t>
+          <t>-37,63%</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,1; 44,09</t>
+          <t>7,81; 52,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-29,18; 20,66</t>
+          <t>-47,89; 12,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>23,83; 180,78</t>
+          <t>15,27; 528,92</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,07; 89,26</t>
+          <t>-82,93; 37,48</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1035,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-0,91</t>
+          <t>-1,04</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-6,22%</t>
+          <t>-7,18%</t>
         </is>
       </c>
     </row>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,49; 21,23</t>
+          <t>-20,52; 20,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 711,59</t>
+          <t>-100,0; 690,71</t>
         </is>
       </c>
     </row>
@@ -1135,7 +1135,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,5</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1155,7 +1155,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>27,74%</t>
         </is>
       </c>
     </row>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,39; 23,96</t>
+          <t>-13,32; 23,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,81; 258,68</t>
+          <t>-48,59; 245,92</t>
         </is>
       </c>
     </row>
@@ -1235,7 +1235,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>15,17</t>
+          <t>15,09</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>60,96%</t>
+          <t>61,31%</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 29,03</t>
+          <t>0,0; 28,81</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1303,7 +1303,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,35; 172,4</t>
+          <t>-1,75; 173,52</t>
         </is>
       </c>
     </row>
@@ -1335,7 +1335,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,05</t>
+          <t>4,12</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1355,7 +1355,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>21,17%</t>
+          <t>17,23%</t>
         </is>
       </c>
     </row>
@@ -1383,7 +1383,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,4; 35,47</t>
+          <t>-12,74; 31,12</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,99; 266,53</t>
+          <t>-45,27; 242,88</t>
         </is>
       </c>
     </row>
@@ -1435,7 +1435,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>12,35</t>
+          <t>9,46</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>55,18%</t>
+          <t>41,41%</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,11; 20,16</t>
+          <t>-0,8; 17,3</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1503,7 +1503,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>17,76; 109,27</t>
+          <t>-2,71; 89,41</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P6905-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P6905-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,51; 44,2</t>
+          <t>-4,44; 42,86</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 42,35</t>
+          <t>-7,42; 42,55</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 38,43</t>
+          <t>-1,27; 39,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-25,56; 34,64</t>
+          <t>-23,61; 34,14</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-10,29; 149,61</t>
+          <t>-9,36; 134,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 117,78</t>
+          <t>-13,97; 119,18</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,63; 167,61</t>
+          <t>-3,45; 166,01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-48,78; 141,71</t>
+          <t>-45,18; 153,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-15,62; 22,19</t>
+          <t>-15,41; 24,44</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-26,27; 9,48</t>
+          <t>-25,17; 11,71</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 31,0</t>
+          <t>-7,07; 29,79</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>14,8; 54,02</t>
+          <t>13,19; 54,7</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,69; 167,67</t>
+          <t>-50,86; 147,35</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-73,56; 43,35</t>
+          <t>-72,35; 57,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-15,12; 124,14</t>
+          <t>-19,65; 116,79</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>30,97; 579,9</t>
+          <t>31,4; 675,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,32 +868,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-28,64; 15,09</t>
+          <t>-27,61; 16,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-31,6; 22,6</t>
+          <t>-30,97; 25,82</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-19,21; 26,58</t>
+          <t>-17,96; 28,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,32; 26,8</t>
+          <t>4,49; 26,48</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-83,17; 129,75</t>
+          <t>-83,13; 132,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-81,11; 144,11</t>
+          <t>-82,69; 162,48</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,98; —</t>
+          <t>12,13; —</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-14,3; 29,32</t>
+          <t>-14,42; 32,47</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,81; 52,0</t>
+          <t>9,09; 52,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-10,76; 38,49</t>
+          <t>-16,16; 35,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-47,89; 12,0</t>
+          <t>-48,73; 9,97</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,9; 174,77</t>
+          <t>-48,84; 199,65</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,27; 528,92</t>
+          <t>13,0; 469,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,53; 145,95</t>
+          <t>-27,5; 136,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-82,93; 37,48</t>
+          <t>-80,67; 32,44</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,93; 74,35</t>
+          <t>-6,31; 73,8</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,04; 78,58</t>
+          <t>6,0; 78,59</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-29,64; 64,8</t>
+          <t>-29,9; 63,14</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-20,52; 20,19</t>
+          <t>-20,99; 18,03</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-29,77; 663,55</t>
+          <t>-23,1; 650,91</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,65; 1419,15</t>
+          <t>8,7; 1315,68</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-52,73; 306,41</t>
+          <t>-46,71; 297,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 690,71</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,83; 44,77</t>
+          <t>-15,07; 46,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,74; 27,85</t>
+          <t>-22,62; 27,69</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-8,74; 73,77</t>
+          <t>-6,8; 71,51</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-13,32; 23,3</t>
+          <t>-13,81; 22,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-21,84; 116,39</t>
+          <t>-23,58; 132,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-71,03; 187,78</t>
+          <t>-78,05; 186,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1677,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-48,59; 245,92</t>
+          <t>-47,42; 242,19</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-10,33; 24,56</t>
+          <t>-10,86; 25,24</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 36,13</t>
+          <t>-4,68; 33,08</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6,04; 37,29</t>
+          <t>5,01; 38,33</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 28,81</t>
+          <t>0,47; 28,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,91; 96,11</t>
+          <t>-27,88; 96,38</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-16,98; 197,86</t>
+          <t>-13,57; 169,58</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>22,78; 371,12</t>
+          <t>19,82; 352,66</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 173,52</t>
+          <t>-0,08; 159,72</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 34,76</t>
+          <t>1,81; 33,29</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,2; 46,23</t>
+          <t>0,76; 44,94</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-28,4; 15,16</t>
+          <t>-29,48; 14,61</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,74; 31,12</t>
+          <t>-11,86; 26,83</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 171,81</t>
+          <t>4,45; 151,34</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 764,48</t>
+          <t>-5,41; 671,79</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-79,76; 98,03</t>
+          <t>-84,61; 90,48</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-45,27; 242,88</t>
+          <t>-42,12; 194,27</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>2,9; 19,26</t>
+          <t>3,36; 18,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>6,83; 24,01</t>
+          <t>6,34; 23,46</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,42; 22,8</t>
+          <t>5,94; 22,74</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 17,3</t>
+          <t>-0,19; 17,46</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>8,99; 71,01</t>
+          <t>10,35; 70,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,47; 105,1</t>
+          <t>21,45; 104,06</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>16,84; 95,77</t>
+          <t>19,03; 96,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 89,41</t>
+          <t>-0,48; 91,13</t>
         </is>
       </c>
     </row>
